--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>540</v>
+        <v>535.4848691260194</v>
       </c>
       <c r="C2">
-        <v>380</v>
+        <v>378.1733609837286</v>
       </c>
       <c r="D2">
-        <v>326</v>
+        <v>324.3964720222395</v>
       </c>
       <c r="E2">
-        <v>296</v>
+        <v>294.2179878809634</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>636</v>
+        <v>631.3495691272635</v>
       </c>
       <c r="C3">
-        <v>450</v>
+        <v>447.9257722692942</v>
       </c>
       <c r="D3">
-        <v>385</v>
+        <v>382.9822906716718</v>
       </c>
       <c r="E3">
-        <v>352</v>
+        <v>350.602469332094</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>603</v>
+        <v>598.8871305916017</v>
       </c>
       <c r="C4">
-        <v>427</v>
+        <v>424.2749863900274</v>
       </c>
       <c r="D4">
-        <v>363</v>
+        <v>361.8241150246059</v>
       </c>
       <c r="E4">
-        <v>332</v>
+        <v>330.8530760416022</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>417</v>
+        <v>413.9612067934758</v>
       </c>
       <c r="C5">
-        <v>296</v>
+        <v>294.3585856825255</v>
       </c>
       <c r="D5">
-        <v>250</v>
+        <v>248.7800367579859</v>
       </c>
       <c r="E5">
-        <v>232</v>
+        <v>230.6370800733493</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>372</v>
+        <v>369.0734575106675</v>
       </c>
       <c r="C6">
-        <v>262</v>
+        <v>260.8286789352674</v>
       </c>
       <c r="D6">
-        <v>223</v>
+        <v>221.7938529479062</v>
       </c>
       <c r="E6">
-        <v>204</v>
+        <v>202.9059229700368</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>38.33206710804144</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>27.0678373726868</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>23.24229472104152</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>21.20280047310334</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2130</v>
+        <v>2113.850600438589</v>
       </c>
       <c r="C8">
-        <v>1504</v>
+        <v>1495.657357800417</v>
       </c>
       <c r="D8">
-        <v>1302</v>
+        <v>1295.065367782164</v>
       </c>
       <c r="E8">
-        <v>1173</v>
+        <v>1168.291416864006</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>534</v>
+        <v>530.3805112132241</v>
       </c>
       <c r="C9">
-        <v>379</v>
+        <v>376.7627727885709</v>
       </c>
       <c r="D9">
-        <v>324</v>
+        <v>322.1087199759793</v>
       </c>
       <c r="E9">
-        <v>297</v>
+        <v>295.2365459766266</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>198</v>
+        <v>196.0768590149285</v>
       </c>
       <c r="C10">
-        <v>136</v>
+        <v>135.5174981927556</v>
       </c>
       <c r="D10">
-        <v>118</v>
+        <v>116.9382027048995</v>
       </c>
       <c r="E10">
-        <v>106</v>
+        <v>105.3879872271629</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>34.98568552358677</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>22.87120849966349</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19.47136745963188</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>18.93101564496779</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72.49519911682752</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>51.03096720047353</v>
       </c>
       <c r="D12">
-        <v>43</v>
+        <v>42.92710729652431</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>38.08525385411853</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>110</v>
+        <v>109.3799209453936</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>74.84677731521124</v>
       </c>
       <c r="D13">
-        <v>66</v>
+        <v>65.12455326262715</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>59.37250690201907</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>535.4848691260194</v>
+        <v>535.4848691260196</v>
       </c>
       <c r="C2">
-        <v>378.1733609837286</v>
+        <v>378.1733609837288</v>
       </c>
       <c r="D2">
-        <v>324.3964720222395</v>
+        <v>324.3964720222394</v>
       </c>
       <c r="E2">
-        <v>294.2179878809634</v>
+        <v>294.2179878809633</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>631.3495691272635</v>
+        <v>631.3495691272637</v>
       </c>
       <c r="C3">
-        <v>447.9257722692942</v>
+        <v>447.925772269294</v>
       </c>
       <c r="D3">
         <v>382.9822906716718</v>
       </c>
       <c r="E3">
-        <v>350.602469332094</v>
+        <v>350.6024693320942</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,13 +425,13 @@
         <v>598.8871305916017</v>
       </c>
       <c r="C4">
-        <v>424.2749863900274</v>
+        <v>424.2749863900275</v>
       </c>
       <c r="D4">
         <v>361.8241150246059</v>
       </c>
       <c r="E4">
-        <v>330.8530760416022</v>
+        <v>330.8530760416021</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>413.9612067934758</v>
+        <v>413.9612067934759</v>
       </c>
       <c r="C5">
-        <v>294.3585856825255</v>
+        <v>294.3585856825257</v>
       </c>
       <c r="D5">
-        <v>248.7800367579859</v>
+        <v>248.7800367579857</v>
       </c>
       <c r="E5">
-        <v>230.6370800733493</v>
+        <v>230.6370800733492</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>369.0734575106675</v>
+        <v>369.0734575106679</v>
       </c>
       <c r="C6">
         <v>260.8286789352674</v>
       </c>
       <c r="D6">
-        <v>221.7938529479062</v>
+        <v>221.793852947906</v>
       </c>
       <c r="E6">
         <v>202.9059229700368</v>
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>38.33206710804144</v>
+        <v>38.33206710804146</v>
       </c>
       <c r="C7">
-        <v>27.0678373726868</v>
+        <v>27.06783737268679</v>
       </c>
       <c r="D7">
-        <v>23.24229472104152</v>
+        <v>23.24229472104151</v>
       </c>
       <c r="E7">
-        <v>21.20280047310334</v>
+        <v>21.20280047310333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2113.850600438589</v>
+        <v>2113.850600438588</v>
       </c>
       <c r="C8">
         <v>1495.657357800417</v>
       </c>
       <c r="D8">
-        <v>1295.065367782164</v>
+        <v>1295.065367782165</v>
       </c>
       <c r="E8">
         <v>1168.291416864006</v>
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>530.3805112132241</v>
+        <v>530.3805112132239</v>
       </c>
       <c r="C9">
         <v>376.7627727885709</v>
       </c>
       <c r="D9">
-        <v>322.1087199759793</v>
+        <v>322.1087199759795</v>
       </c>
       <c r="E9">
         <v>295.2365459766266</v>
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>196.0768590149285</v>
+        <v>196.0768590149286</v>
       </c>
       <c r="C10">
-        <v>135.5174981927556</v>
+        <v>135.5174981927554</v>
       </c>
       <c r="D10">
         <v>116.9382027048995</v>
       </c>
       <c r="E10">
-        <v>105.3879872271629</v>
+        <v>105.387987227163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>34.98568552358677</v>
+        <v>34.9856855235868</v>
       </c>
       <c r="C11">
-        <v>22.87120849966349</v>
+        <v>22.87120849966348</v>
       </c>
       <c r="D11">
-        <v>19.47136745963188</v>
+        <v>19.47136745963189</v>
       </c>
       <c r="E11">
-        <v>18.93101564496779</v>
+        <v>18.93101564496777</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>72.49519911682752</v>
+        <v>72.49519911682756</v>
       </c>
       <c r="C12">
-        <v>51.03096720047353</v>
+        <v>51.0309672004735</v>
       </c>
       <c r="D12">
         <v>42.92710729652431</v>
       </c>
       <c r="E12">
-        <v>38.08525385411853</v>
+        <v>38.08525385411851</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>109.3799209453936</v>
+        <v>109.3799209453937</v>
       </c>
       <c r="C13">
-        <v>74.84677731521124</v>
+        <v>74.84677731521121</v>
       </c>
       <c r="D13">
-        <v>65.12455326262715</v>
+        <v>65.12455326262716</v>
       </c>
       <c r="E13">
-        <v>59.37250690201907</v>
+        <v>59.37250690201903</v>
       </c>
     </row>
   </sheetData>
